--- a/biology/Botanique/Spartina_×townsendii/Spartina_×townsendii.xlsx
+++ b/biology/Botanique/Spartina_×townsendii/Spartina_×townsendii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spartina_%C3%97townsendii</t>
+          <t>Spartina_×townsendii</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spartine de Townsend
 Spartina ×townsendii, la spartine de Townsend, est une plante halophyte, hybride naturel stérile de Spartina maritima et Spartina alterniflora, de la famille des Poaceae.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spartina_%C3%97townsendii</t>
+          <t>Spartina_×townsendii</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La spartine de Townsend atteint en moyenne une hauteur de 60 à 80 cm pouvant aller exceptionnellement jusqu'à 1,10 mètre. Leurs tiges recouvertes de graines foliaires ont une épaisseur de 1 à 1,5 cm au maximum.
 Elle présente de nombreux rhizomes avec des écailles à chaque nœud. Chaque point de bifurcation est un lieu de fort enracinement et devient une souche qui émet des rameaux aériens. Chaque souche engendre à son tour de nouveaux stolons, ce qui forme un ensemble qui prolifère sur le pourtour. Les bourgeons qui terminent les stolons sont aigus, durs et allongés et donc adaptés à pénétrer horizontalement dans le sol ou à en sortir verticalement sans s'émousser ni dévier.
